--- a/data/trans_camb/P57_AC_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>10.08649841757117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-9.664839327392794</v>
+        <v>-9.664839327392782</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.198614246356412</v>
@@ -655,7 +655,7 @@
         <v>11.87377092886286</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-13.0358180444694</v>
+        <v>-13.03581804446942</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.8627169438116034</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.366654480245959</v>
+        <v>-9.059308225809421</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.075434871231692</v>
+        <v>3.194059418676751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.35081507554205</v>
+        <v>-15.69972013829235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.11628026272467</v>
+        <v>-4.871464819802513</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.870120339024864</v>
+        <v>4.48011879636955</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.75879102925436</v>
+        <v>-19.95418842201099</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.129738072240049</v>
+        <v>-5.893008107954927</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.342864087054945</v>
+        <v>6.52815638609118</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.86005551916752</v>
+        <v>-15.93285597858811</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.376852561039025</v>
+        <v>3.783842041099365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.13317073286819</v>
+        <v>16.09749109057682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.293695253609614</v>
+        <v>-3.15720181482327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.92569168872633</v>
+        <v>10.14948521504793</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.11607636659481</v>
+        <v>18.75366981038536</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-6.724689531366809</v>
+        <v>-5.652143543964077</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.257787658278016</v>
+        <v>3.726485888572018</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.49149254554949</v>
+        <v>15.19144398197392</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.776776024828177</v>
+        <v>-6.948223516007691</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1524161388601593</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1460444875913386</v>
+        <v>-0.1460444875913384</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.03365082161044348</v>
@@ -760,7 +760,7 @@
         <v>0.1817336297318169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1995193055296564</v>
+        <v>-0.1995193055296565</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.0131018226290649</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1361237862997413</v>
+        <v>-0.1313144666320294</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05982141828610078</v>
+        <v>0.04572901421580922</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2310702020504684</v>
+        <v>-0.2288679532016576</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08913005026756132</v>
+        <v>-0.0708858695654624</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0584124914703728</v>
+        <v>0.064942630015835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2874067461156763</v>
+        <v>-0.2951707306122367</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08915983161697827</v>
+        <v>-0.08650351126033153</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09400042191587389</v>
+        <v>0.09690773522610645</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2314190898550929</v>
+        <v>-0.2346311248434076</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06938721631397178</v>
+        <v>0.05976716980429495</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2615071907600751</v>
+        <v>0.261465955513429</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04989692194007712</v>
+        <v>-0.0495174407714933</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1594556246743541</v>
+        <v>0.1632813429797532</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.315766121631877</v>
+        <v>0.3054571320473632</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1100083845968508</v>
+        <v>-0.09985689689695995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06711563169979755</v>
+        <v>0.05830151879333546</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2450809065848789</v>
+        <v>0.2426301749935245</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1074263649921291</v>
+        <v>-0.1086389715580966</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>12.13650157494657</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0417466649080267</v>
+        <v>0.0417466649080489</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.331193362648693</v>
+        <v>-4.544228920285183</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.310371265293404</v>
+        <v>5.241003230028779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.532998023698303</v>
+        <v>-4.566272403659694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.129341291463842</v>
+        <v>-2.857575522625759</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.407634888159571</v>
+        <v>5.591549453517892</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.494422011707504</v>
+        <v>-8.81880461777909</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.200486625879326</v>
+        <v>-1.201636768748364</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.229583447701154</v>
+        <v>7.399161285376479</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.8150898686448</v>
+        <v>-4.72511044120657</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.16515434012551</v>
+        <v>10.39001929629445</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.42437975439733</v>
+        <v>19.53404992611804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.440659386700382</v>
+        <v>9.166187188970111</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.37212291790959</v>
+        <v>11.76346117095383</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.4207326498126</v>
+        <v>19.08362884544498</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.108216904763122</v>
+        <v>3.887517129236271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.751027553050745</v>
+        <v>8.90109692588323</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.21967442210006</v>
+        <v>16.81893434737106</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.37530921171786</v>
+        <v>5.143351404813585</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1896508575294026</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.0006523536251289729</v>
+        <v>0.0006523536251293199</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05171416208184697</v>
+        <v>-0.06711673666013573</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08177248613995033</v>
+        <v>0.07772090058376631</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08068016876509855</v>
+        <v>-0.07007245472248799</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0308597106587248</v>
+        <v>-0.04148923940142771</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07837219287972155</v>
+        <v>0.07903342643618776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1239698584254399</v>
+        <v>-0.1242695184122632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01776910353040961</v>
+        <v>-0.01759288843589013</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1103967711784848</v>
+        <v>0.1119655822097601</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07212407133579136</v>
+        <v>-0.07030070443561336</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1947743623794343</v>
+        <v>0.1792553354645659</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3428030646269166</v>
+        <v>0.3349672663790221</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1618782831723081</v>
+        <v>0.1602530007923541</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1929096442065095</v>
+        <v>0.1875190680568282</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.301278383349754</v>
+        <v>0.3062976429643401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06625785728862407</v>
+        <v>0.06194953113045307</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1426274431388532</v>
+        <v>0.1424824107451509</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2821053326200957</v>
+        <v>0.2765244329187321</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07198964906556317</v>
+        <v>0.08384475264393638</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>16.15397024506914</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-5.429840276349363</v>
+        <v>-5.42984027634934</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.335750400968752</v>
@@ -1092,7 +1092,7 @@
         <v>13.24161476993435</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-8.043511645824196</v>
+        <v>-8.043511645824186</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.33730267159071</v>
+        <v>-11.42620901242128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.104575780265815</v>
+        <v>7.122240714071854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.31767245632614</v>
+        <v>-15.18195739013166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.211390169020232</v>
+        <v>-9.675955437320589</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.190620261669535</v>
+        <v>7.5443114369973</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.11357091878459</v>
+        <v>-15.46340647574779</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.867468064574016</v>
+        <v>-8.609272658323453</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.201869982234802</v>
+        <v>9.163110642087261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.84474967057027</v>
+        <v>-13.42625793665941</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.2549239818373717</v>
+        <v>-0.3033351259066748</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.78657086352184</v>
+        <v>17.45031734444953</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.350963450536947</v>
+        <v>-2.991126003802926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.872655548993338</v>
+        <v>9.926285598635744</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.69469030985161</v>
+        <v>25.20971585026475</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.051312873175293</v>
+        <v>3.606851387309458</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.33016331909635</v>
+        <v>0.3861127316983863</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.90651454816688</v>
+        <v>17.94662413463981</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.46271584231733</v>
+        <v>-3.445131594268669</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2309938553598937</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07764405408665538</v>
+        <v>-0.07764405408665508</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.06081634546719791</v>
@@ -1197,7 +1197,7 @@
         <v>0.1857363879184432</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1128240645293086</v>
+        <v>-0.1128240645293084</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1538790144127977</v>
+        <v>-0.1535732281982326</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09369329942975112</v>
+        <v>0.09520256145351214</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2071039541296285</v>
+        <v>-0.2038745108439715</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1237600029709879</v>
+        <v>-0.1278860940958265</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07900475652074657</v>
+        <v>0.09880709470858505</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1892009777709311</v>
+        <v>-0.2034275052769799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1195644609066254</v>
+        <v>-0.1171763684783323</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1245499268494268</v>
+        <v>0.1255211410982293</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1746986912977718</v>
+        <v>-0.1819063835156576</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.003677134115085115</v>
+        <v>-0.006424103834825469</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2590302224256285</v>
+        <v>0.2551531068650604</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.03537445448938017</v>
+        <v>-0.04333851657125766</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1557997025567305</v>
+        <v>0.1551851433999329</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3806152804851376</v>
+        <v>0.3986782763212989</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07829763981677883</v>
+        <v>0.05472239969484168</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01909586089768476</v>
+        <v>0.005527121193270966</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2655835208860454</v>
+        <v>0.2655851915157789</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03633630348490982</v>
+        <v>-0.05164097423467682</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>9.303217717592037</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-7.387916968941388</v>
+        <v>-7.387916968941378</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.720924129681745</v>
+        <v>-6.763857281019435</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.170370921433264</v>
+        <v>4.765379533483711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.771441183435927</v>
+        <v>-9.963712658028696</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1968056919860141</v>
+        <v>-0.3997341309988829</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.662201036035369</v>
+        <v>6.413679484004904</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.76833311525635</v>
+        <v>-13.91304868340429</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.813790579499734</v>
+        <v>-2.946076237967018</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.387606665329813</v>
+        <v>6.565698232515711</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.29332652701958</v>
+        <v>-10.27498746176372</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8866739911710099</v>
+        <v>0.9444000889698699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.87272762976329</v>
+        <v>11.88939025009004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.704247508749426</v>
+        <v>-1.657336185026606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.350334951448112</v>
+        <v>8.832614391884555</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.54363231896646</v>
+        <v>14.66290586121993</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.069161957200378</v>
+        <v>-5.122944894760153</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.948202971107885</v>
+        <v>3.055259862031398</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.96974421717279</v>
+        <v>12.08139908644227</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.430315766377022</v>
+        <v>-4.410281134359223</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1299671582438077</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1032101583497116</v>
+        <v>-0.1032101583497115</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09184265211805126</v>
+        <v>-0.09472822875281108</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05695132855454804</v>
+        <v>0.06593089102377253</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1361045096641399</v>
+        <v>-0.1396177351312105</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.002211967828499113</v>
+        <v>-0.004646997206632477</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07463185067544753</v>
+        <v>0.0848691328722959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1823107206671911</v>
+        <v>-0.1844586219331887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03836461965866522</v>
+        <v>-0.04056301100664966</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08658661006389726</v>
+        <v>0.09017931269046632</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1415910554279048</v>
+        <v>-0.1419078753888555</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01277246081119701</v>
+        <v>0.01349258360708607</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.171364378382918</v>
+        <v>0.1733008042410297</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02510716093027065</v>
+        <v>-0.02427473690128704</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1325381253342707</v>
+        <v>0.1268580668141211</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.206029999812968</v>
+        <v>0.2093246991666805</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.07179740010255081</v>
+        <v>-0.07273505968243746</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04179886052704354</v>
+        <v>0.04332007715812324</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1698464671328869</v>
+        <v>0.1733594000426053</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06338461001556082</v>
+        <v>-0.06371293764190475</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>7.822418964053524</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.042065192395173</v>
+        <v>-5.042065192395184</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.125025538597339</v>
+        <v>-7.05564748769021</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.192658119324806</v>
+        <v>3.551322168483775</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.95636974713128</v>
+        <v>-9.018586902979946</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.087023408744456</v>
+        <v>-6.055308817348729</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.809620175362203</v>
+        <v>2.854324687164926</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.05972423167331</v>
+        <v>-10.91001274826245</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.139541165127683</v>
+        <v>-5.094450956744045</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.413062292029951</v>
+        <v>4.384175717607568</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.796298638036706</v>
+        <v>-8.495748562917854</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.918388457875791</v>
+        <v>6.007279034188499</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.73144240688045</v>
+        <v>15.71570727597158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.729538847049531</v>
+        <v>4.103153628211267</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.449992614200655</v>
+        <v>3.389402727659099</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.51585334470682</v>
+        <v>11.4721420505003</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.046092570793102</v>
+        <v>-2.026520587517945</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.70129768249419</v>
+        <v>2.544898003004713</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.74105952661019</v>
+        <v>11.19006422998596</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.131934560861449</v>
+        <v>-0.8675217469498836</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1042140881273468</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.06717285646789388</v>
+        <v>-0.06717285646789403</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.08208910714364549</v>
+        <v>-0.0939094034723984</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.05598132754259045</v>
+        <v>0.04691007378009154</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1208050688966656</v>
+        <v>-0.1186186547274999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07731007258407019</v>
+        <v>-0.07546590971635377</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03624899459214883</v>
+        <v>0.0363665743733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1365624207929447</v>
+        <v>-0.1350748302598753</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0664933097031937</v>
+        <v>-0.06496128467850638</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0573221688461308</v>
+        <v>0.0581132730937859</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1140321474002055</v>
+        <v>-0.1100327781089075</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1040190747541517</v>
+        <v>0.08974362802935325</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2349848456282639</v>
+        <v>0.240417744518594</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05493200565340689</v>
+        <v>0.06129542731487891</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04568112946147299</v>
+        <v>0.04579616273254317</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1548704138157435</v>
+        <v>0.1547235945133586</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02738129144759285</v>
+        <v>-0.0261752172568298</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03720869371057847</v>
+        <v>0.03501765291162674</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1618844720442838</v>
+        <v>0.1552114636050734</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.0163183455279029</v>
+        <v>-0.01311595091578676</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>20.22807074361899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-11.87933979948676</v>
+        <v>-11.87933979948675</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.337612734160355</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.511064160508402</v>
+        <v>-4.589641330450539</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>12.88364981690516</v>
+        <v>12.04100612876856</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-23.36433184863644</v>
+        <v>-23.19226511054875</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.454061750243254</v>
+        <v>-1.775125263045245</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>8.695244917214142</v>
+        <v>9.315078131018703</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.795105528046443</v>
+        <v>-8.691421714738022</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.000979984199436</v>
+        <v>-0.9873010223658953</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>10.9063043733209</v>
+        <v>10.47376545591721</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-10.68194819374692</v>
+        <v>-11.13497076027561</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.3251193665233</v>
+        <v>11.94594426883773</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>27.65018943408198</v>
+        <v>27.75266584744416</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.4627795397429263</v>
+        <v>-0.1780845801826744</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.035577057473811</v>
+        <v>5.938380685359551</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.02062904832502</v>
+        <v>15.68999150960142</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.630067087416641</v>
+        <v>-0.505593589831655</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.998313199391792</v>
+        <v>5.944304964231597</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>17.1782270686326</v>
+        <v>17.05139783222892</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.024396743405336</v>
+        <v>-2.410859734644927</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.3577628774003943</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2101034172832365</v>
+        <v>-0.2101034172832363</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.03384788584595889</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.09147069222393027</v>
+        <v>-0.0757116377969677</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2080185606732532</v>
+        <v>0.1977087196477457</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3888637881918904</v>
+        <v>-0.3939323902574342</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02033151568723158</v>
+        <v>-0.02497839652492659</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1234459977736555</v>
+        <v>0.1306468781809894</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1247752642595334</v>
+        <v>-0.1234387009676919</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01483451872994591</v>
+        <v>-0.01461744792837316</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.160313924456132</v>
+        <v>0.1509149378369495</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1570143054212493</v>
+        <v>-0.1622834855117102</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2130555805388662</v>
+        <v>0.2358439195610386</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.519459416064213</v>
+        <v>0.5244174514609399</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.008121166475874424</v>
+        <v>-0.0035892364956135</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.08976696014352348</v>
+        <v>0.08759467360444873</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2413812097670542</v>
+        <v>0.2335533134539346</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.009006076122372961</v>
+        <v>-0.007975165971221936</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09269041865184456</v>
+        <v>0.09211113174147879</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2653825328220125</v>
+        <v>0.2620610874690597</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.03075748859506868</v>
+        <v>-0.03642828405561826</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>11.06381660660212</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-5.599051849462422</v>
+        <v>-5.599051849462433</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.462821180164354</v>
@@ -1939,7 +1939,7 @@
         <v>11.36346350567531</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-6.729758708673083</v>
+        <v>-6.729758708673073</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.5012135109981664</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.922952968002343</v>
+        <v>-4.003520424179198</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8.82662009074147</v>
+        <v>8.952659622483198</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.977667589374845</v>
+        <v>-8.141912681845866</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.3147935484598353</v>
+        <v>0.2205645251589033</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>9.246026122234925</v>
+        <v>9.256363036041282</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.827745413246625</v>
+        <v>-8.788332182694109</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.211664853075364</v>
+        <v>-1.058479872882753</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.896939564573479</v>
+        <v>9.738371898576066</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-7.654306656374989</v>
+        <v>-7.91169556771012</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.8177798558395581</v>
+        <v>0.7283937122452484</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.23018518383501</v>
+        <v>13.30519612792082</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.966031975886078</v>
+        <v>-3.226838209010682</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.843558574846076</v>
+        <v>4.895614595250603</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.27925628263379</v>
+        <v>13.43350182357197</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-4.578423495578025</v>
+        <v>-4.521065213994606</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.013419910349275</v>
+        <v>2.167840754151081</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>12.83072556353081</v>
+        <v>12.56842067641917</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-4.483810309006003</v>
+        <v>-4.504115584794953</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.1627739763163809</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.08237482286128429</v>
+        <v>-0.08237482286128445</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.03482298669663863</v>
@@ -2044,7 +2044,7 @@
         <v>0.1606733536616176</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.09515522274665171</v>
+        <v>-0.09515522274665154</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.007225252338083152</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05693275282807651</v>
+        <v>-0.05777990725515098</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1276310354994812</v>
+        <v>0.1292092725646855</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1159734613905609</v>
+        <v>-0.1181486620528786</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.00425058555196272</v>
+        <v>0.00290368060353931</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1288489935057855</v>
+        <v>0.1283261473763954</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1220792683846118</v>
+        <v>-0.121555852500385</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01736993327461724</v>
+        <v>-0.01503396172188944</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1408268109474018</v>
+        <v>0.1397712389411643</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1094531511815597</v>
+        <v>-0.1127588577622591</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01204108974603041</v>
+        <v>0.01094762402177715</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.197175162197105</v>
+        <v>0.1999364255430066</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.0420891726401592</v>
+        <v>-0.04816860878455733</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.0697249507832048</v>
+        <v>0.07002564368640822</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1914170947117984</v>
+        <v>0.1940364583353749</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.06539252038636777</v>
+        <v>-0.06506811540397796</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02958683945823701</v>
+        <v>0.03167834218588001</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1868912350434389</v>
+        <v>0.1840999588258281</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.06547167629209898</v>
+        <v>-0.06540364066237651</v>
       </c>
     </row>
     <row r="46">
